--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/67/word_level_predictions_67.xlsx
@@ -814,730 +814,730 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>are</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3050,312 +3050,312 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Recorder</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>Recorder</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>7</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Index</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8614,314 +8614,314 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" t="n">
         <v>15</v>
       </c>
-      <c r="B158" s="2" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D158" s="2" t="n">
+      <c r="D158" t="n">
         <v>3</v>
       </c>
-      <c r="E158" s="2" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F158" s="2" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G158" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L158" s="2" t="inlineStr">
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" t="n">
         <v>15</v>
       </c>
-      <c r="B159" s="2" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C159" s="2" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D159" s="2" t="n">
+      <c r="D159" t="n">
         <v>4</v>
       </c>
-      <c r="E159" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L159" s="2" t="inlineStr">
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" t="n">
         <v>15</v>
       </c>
-      <c r="B160" s="2" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C160" s="2" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D160" s="2" t="n">
+      <c r="D160" t="n">
         <v>5</v>
       </c>
-      <c r="E160" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G160" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L160" s="2" t="inlineStr">
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" t="n">
         <v>15</v>
       </c>
-      <c r="B161" s="2" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C161" s="2" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D161" s="2" t="n">
+      <c r="D161" t="n">
         <v>6</v>
       </c>
-      <c r="E161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L161" s="2" t="inlineStr">
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" t="n">
         <v>15</v>
       </c>
-      <c r="B162" s="2" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C162" s="2" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D162" s="2" t="n">
+      <c r="D162" t="n">
         <v>7</v>
       </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L162" s="2" t="inlineStr">
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" t="n">
         <v>15</v>
       </c>
-      <c r="B163" s="2" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C163" s="2" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D163" s="2" t="n">
+      <c r="D163" t="n">
         <v>8</v>
       </c>
-      <c r="E163" s="2" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F163" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G163" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L163" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20522,470 +20522,470 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n">
+      <c r="A387" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B387" t="inlineStr">
+      <c r="B387" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
+      <c r="C387" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" t="n">
+      <c r="D387" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E387" t="inlineStr">
+      <c r="E387" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G387" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K387" t="b">
-        <v>1</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F387" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K387" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L387" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n">
+      <c r="A388" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B388" t="inlineStr">
+      <c r="B388" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
+      <c r="C388" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" t="inlineStr">
+      <c r="D388" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" t="inlineStr">
+      <c r="F388" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K388" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L388" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B389" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C389" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D389" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E389" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G388" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K388" t="b">
-        <v>1</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
+      <c r="F389" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K389" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L389" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B389" t="inlineStr">
+      <c r="B390" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
+      <c r="C390" s="2" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+      <c r="D390" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E390" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F390" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K390" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L390" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>35</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>4</v>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G391" t="b">
+        <v>1</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I391" t="b">
+        <v>1</v>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K391" t="b">
+        <v>1</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>35</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D389" t="n">
-        <v>2</v>
-      </c>
-      <c r="E389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G389" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K389" t="b">
-        <v>1</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
+      <c r="D392" t="n">
+        <v>5</v>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G392" t="b">
+        <v>1</v>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I392" t="b">
+        <v>1</v>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K392" t="b">
+        <v>1</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
         <v>35</v>
       </c>
-      <c r="B390" t="inlineStr">
+      <c r="B393" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C390" t="inlineStr">
-        <is>
-          <t>space</t>
-        </is>
-      </c>
-      <c r="D390" t="n">
-        <v>3</v>
-      </c>
-      <c r="E390" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G390" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K390" t="b">
-        <v>1</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>6</v>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G393" t="b">
+        <v>1</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I393" t="b">
+        <v>1</v>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K393" t="b">
+        <v>1</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
         <v>35</v>
       </c>
-      <c r="B391" s="2" t="inlineStr">
+      <c r="B394" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C391" s="2" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
-      <c r="D391" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E391" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F391" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G391" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H391" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I391" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J391" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K391" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L391" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>7</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G394" t="b">
+        <v>1</v>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I394" t="b">
+        <v>1</v>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K394" t="b">
+        <v>1</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
         <v>35</v>
       </c>
-      <c r="B392" s="2" t="inlineStr">
+      <c r="B395" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C392" s="2" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D392" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E392" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F392" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G392" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H392" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I392" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J392" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K392" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L392" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B393" s="2" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C393" s="2" t="inlineStr">
-        <is>
-          <t>or</t>
-        </is>
-      </c>
-      <c r="D393" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E393" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F393" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G393" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H393" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I393" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J393" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K393" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L393" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B394" s="2" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C394" s="2" t="inlineStr">
-        <is>
-          <t>delete</t>
-        </is>
-      </c>
-      <c r="D394" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E394" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F394" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G394" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H394" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I394" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J394" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K394" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L394" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B395" s="2" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C395" s="2" t="inlineStr">
+      <c r="C395" t="inlineStr">
         <is>
           <t>files</t>
         </is>
       </c>
-      <c r="D395" s="2" t="n">
+      <c r="D395" t="n">
         <v>8</v>
       </c>
-      <c r="E395" s="2" t="inlineStr">
+      <c r="E395" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F395" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G395" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H395" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I395" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J395" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K395" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L395" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G395" t="b">
+        <v>1</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I395" t="b">
+        <v>1</v>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K395" t="b">
+        <v>1</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/67/word_level_predictions_67.xlsx
@@ -814,730 +814,730 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" t="n">
         <v>8</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" t="n">
         <v>9</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" t="n">
         <v>11</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>12</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" t="n">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3050,312 +3050,312 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -8614,314 +8614,314 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C158" s="2" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E158" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="F158" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G158" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K158" t="b">
-        <v>1</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="G158" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C159" s="2" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G159" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K159" t="b">
-        <v>1</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C160" s="2" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G160" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K160" t="b">
-        <v>1</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
+      <c r="A161" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C161" s="2" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K161" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C163" s="2" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E163" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G163" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K163" t="b">
-        <v>1</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F163" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G163" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20522,470 +20522,470 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="2" t="n">
+      <c r="A387" t="n">
         <v>35</v>
       </c>
-      <c r="B387" s="2" t="inlineStr">
+      <c r="B387" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" s="2" t="inlineStr">
+      <c r="C387" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" s="2" t="n">
+      <c r="D387" t="n">
         <v>0</v>
       </c>
-      <c r="E387" s="2" t="inlineStr">
+      <c r="E387" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" s="2" t="inlineStr">
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G387" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K387" t="b">
+        <v>1</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>35</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G388" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K388" t="b">
+        <v>1</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>35</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>2</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G389" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K389" t="b">
+        <v>1</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>35</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>3</v>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G390" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K390" t="b">
+        <v>1</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B391" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C391" s="2" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="D391" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E391" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K387" s="2" t="b">
+      <c r="F391" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G391" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H391" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I391" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J391" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K391" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L387" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+      <c r="L391" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B388" s="2" t="inlineStr">
+      <c r="B392" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" s="2" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="D388" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" s="2" t="inlineStr">
+      <c r="C392" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D392" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E392" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F392" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K388" s="2" t="b">
+      <c r="G392" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H392" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I392" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J392" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K392" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L388" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+      <c r="L392" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B389" s="2" t="inlineStr">
+      <c r="B393" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" s="2" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D389" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E389" s="2" t="inlineStr">
+      <c r="C393" s="2" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="D393" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E393" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F393" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F389" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K389" s="2" t="b">
+      <c r="G393" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H393" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I393" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J393" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K393" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L389" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+      <c r="L393" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B390" s="2" t="inlineStr">
+      <c r="B394" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C390" s="2" t="inlineStr">
-        <is>
-          <t>space</t>
-        </is>
-      </c>
-      <c r="D390" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E390" s="2" t="inlineStr">
+      <c r="C394" s="2" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="D394" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E394" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F394" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G394" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H394" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I394" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J394" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K394" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L394" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B395" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C395" s="2" t="inlineStr">
+        <is>
+          <t>files</t>
+        </is>
+      </c>
+      <c r="D395" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E395" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F395" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K390" s="2" t="b">
+      <c r="G395" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H395" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I395" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J395" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K395" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L390" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="n">
-        <v>35</v>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
-      <c r="D391" t="n">
-        <v>4</v>
-      </c>
-      <c r="E391" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F391" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G391" t="b">
-        <v>1</v>
-      </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I391" t="b">
-        <v>1</v>
-      </c>
-      <c r="J391" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K391" t="b">
-        <v>1</v>
-      </c>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="n">
-        <v>35</v>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C392" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D392" t="n">
-        <v>5</v>
-      </c>
-      <c r="E392" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F392" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G392" t="b">
-        <v>1</v>
-      </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I392" t="b">
-        <v>1</v>
-      </c>
-      <c r="J392" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K392" t="b">
-        <v>1</v>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="n">
-        <v>35</v>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr">
-        <is>
-          <t>or</t>
-        </is>
-      </c>
-      <c r="D393" t="n">
-        <v>6</v>
-      </c>
-      <c r="E393" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F393" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G393" t="b">
-        <v>1</v>
-      </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I393" t="b">
-        <v>1</v>
-      </c>
-      <c r="J393" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K393" t="b">
-        <v>1</v>
-      </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="n">
-        <v>35</v>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr">
-        <is>
-          <t>delete</t>
-        </is>
-      </c>
-      <c r="D394" t="n">
-        <v>7</v>
-      </c>
-      <c r="E394" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F394" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G394" t="b">
-        <v>1</v>
-      </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I394" t="b">
-        <v>1</v>
-      </c>
-      <c r="J394" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K394" t="b">
-        <v>1</v>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="n">
-        <v>35</v>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C395" t="inlineStr">
-        <is>
-          <t>files</t>
-        </is>
-      </c>
-      <c r="D395" t="n">
-        <v>8</v>
-      </c>
-      <c r="E395" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F395" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G395" t="b">
-        <v>1</v>
-      </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I395" t="b">
-        <v>1</v>
-      </c>
-      <c r="J395" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K395" t="b">
-        <v>1</v>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="L395" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
